--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-9.732425414154795</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.52691374834681</v>
+        <v>-17.66839671806847</v>
       </c>
       <c r="F2" t="n">
-        <v>3.475673071095772</v>
+        <v>2.571065019517366</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.31194484391083</v>
+        <v>-9.282425020448397</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.500934618383821</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.13637734437643</v>
+        <v>-18.25790338806734</v>
       </c>
       <c r="F3" t="n">
-        <v>3.361050305100951</v>
+        <v>2.530232034164892</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.168217820037263</v>
+        <v>-9.215665631680674</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.242613221960458</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.55944755360492</v>
+        <v>-18.67505789898686</v>
       </c>
       <c r="F4" t="n">
-        <v>3.602205457818398</v>
+        <v>2.791461449077892</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.138702885581699</v>
+        <v>-9.226284554595614</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.973935739017474</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.34096996830187</v>
+        <v>-19.39362946126542</v>
       </c>
       <c r="F5" t="n">
-        <v>3.847051810720365</v>
+        <v>3.046501381297377</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.058171164469876</v>
+        <v>-9.279960960987472</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.688585509673125</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.90751786205371</v>
+        <v>-19.88067721435435</v>
       </c>
       <c r="F6" t="n">
-        <v>3.924826131959248</v>
+        <v>3.111114496050525</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.490885030681133</v>
+        <v>-8.741920866276615</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.395759623110425</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.59549401935912</v>
+        <v>-20.53175114782828</v>
       </c>
       <c r="F7" t="n">
-        <v>4.06841626364054</v>
+        <v>3.313152704825785</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.321383162605192</v>
+        <v>-8.528794389927192</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.095880141587564</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.13366611725538</v>
+        <v>-21.08129018669012</v>
       </c>
       <c r="F8" t="n">
-        <v>4.22994905052341</v>
+        <v>3.434576079372485</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.998249142743315</v>
+        <v>-8.262196845474319</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.799703855509872</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.61943295054518</v>
+        <v>-21.58734150947075</v>
       </c>
       <c r="F9" t="n">
-        <v>4.361145549797072</v>
+        <v>3.590691846646813</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.328658004823161</v>
+        <v>-8.601836152518901</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.512275256116911</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.28294940649541</v>
+        <v>-22.22719028317825</v>
       </c>
       <c r="F10" t="n">
-        <v>4.74548015761899</v>
+        <v>4.007763244449594</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.081308480405333</v>
+        <v>-8.501992854282765</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.240603496053267</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.14364439839519</v>
+        <v>-22.9707055584918</v>
       </c>
       <c r="F11" t="n">
-        <v>4.921166619381579</v>
+        <v>4.117154773096815</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.659147626454095</v>
+        <v>-8.155826723070851</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.991393234077988</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.91129670061071</v>
+        <v>-23.77148577123754</v>
       </c>
       <c r="F12" t="n">
-        <v>5.261436608311993</v>
+        <v>4.478623495802172</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.107623650804286</v>
+        <v>-7.662051696533042</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.761709511139971</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.48270915619512</v>
+        <v>-24.3241831085354</v>
       </c>
       <c r="F13" t="n">
-        <v>6.037542003400406</v>
+        <v>5.194672330537403</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.841842570498189</v>
+        <v>-7.483084711162753</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.553529533362604</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.65573346278089</v>
+        <v>-25.48432977103372</v>
       </c>
       <c r="F14" t="n">
-        <v>6.182906844574388</v>
+        <v>5.336326415499395</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.339096216359591</v>
+        <v>-7.0566850882579</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.35808403449384</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.04340237328605</v>
+        <v>-25.8495630290266</v>
       </c>
       <c r="F15" t="n">
-        <v>6.441784647184401</v>
+        <v>5.613039315159915</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.825139369475157</v>
+        <v>-6.608460938699137</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.167061585929669</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.10494754529242</v>
+        <v>-26.91640299546985</v>
       </c>
       <c r="F16" t="n">
-        <v>6.705571012688798</v>
+        <v>5.884428086342364</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.561822348629985</v>
+        <v>-6.347299969882275</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.969852551172864</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.9715680135149</v>
+        <v>-27.8239004501066</v>
       </c>
       <c r="F17" t="n">
-        <v>7.031858441979835</v>
+        <v>6.146737971772952</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.122090403999054</v>
+        <v>-5.918553623681301</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.755140504758966</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.52952592220157</v>
+        <v>-28.42839925966286</v>
       </c>
       <c r="F18" t="n">
-        <v>7.44049141393032</v>
+        <v>6.561579982444418</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.961535418489567</v>
+        <v>-5.775951071387126</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.520768713639642</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.47850171109723</v>
+        <v>-29.28498015228413</v>
       </c>
       <c r="F19" t="n">
-        <v>7.547976229899445</v>
+        <v>6.737638008728893</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.805800993750858</v>
+        <v>-5.601643309561007</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.265819369936083</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.95234914564549</v>
+        <v>-29.81653009037916</v>
       </c>
       <c r="F20" t="n">
-        <v>7.735772761671382</v>
+        <v>6.971176088747686</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.637814717803661</v>
+        <v>-5.415479706082619</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.001199943310688</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.79327299377546</v>
+        <v>-30.69448083201571</v>
       </c>
       <c r="F21" t="n">
-        <v>8.056320496900661</v>
+        <v>7.269855296261254</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.549602366903915</v>
+        <v>-5.311549198105742</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.739366931608064</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.97007659360714</v>
+        <v>-30.86051150521615</v>
       </c>
       <c r="F22" t="n">
-        <v>8.061478399145255</v>
+        <v>7.326157099340646</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.747411584739293</v>
+        <v>-5.477310975928493</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.498050429872541</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.46264403544882</v>
+        <v>-31.39494840186608</v>
       </c>
       <c r="F23" t="n">
-        <v>8.10593902759298</v>
+        <v>7.27949641780281</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.544322239487646</v>
+        <v>-5.178617101394324</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.29672627550381</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.48790553393017</v>
+        <v>-31.43941391932067</v>
       </c>
       <c r="F24" t="n">
-        <v>8.47657952718067</v>
+        <v>7.618182368508343</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.736895330968559</v>
+        <v>-5.24475558628995</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.15300914152669</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.58079910890499</v>
+        <v>-31.63416261885737</v>
       </c>
       <c r="F25" t="n">
-        <v>8.424164484560475</v>
+        <v>7.527833521607755</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.565604086379326</v>
+        <v>-4.935369453737838</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.086542599569593</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.52085499570974</v>
+        <v>-31.52387151294663</v>
       </c>
       <c r="F26" t="n">
-        <v>8.056745840498081</v>
+        <v>7.203775479448032</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.597666193412555</v>
+        <v>-4.927503041688972</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.107826976329042</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.63150788812863</v>
+        <v>-31.60722174651723</v>
       </c>
       <c r="F27" t="n">
-        <v>8.2408658391061</v>
+        <v>7.322309450936385</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.373720344866649</v>
+        <v>-4.636348015743586</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.224780440403117</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.33160153989147</v>
+        <v>-31.28649800704074</v>
       </c>
       <c r="F28" t="n">
-        <v>8.22659971706844</v>
+        <v>7.268843271839803</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.577508818100265</v>
+        <v>-4.750687219340126</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.433310669742205</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.0880703298367</v>
+        <v>-31.06177725090643</v>
       </c>
       <c r="F29" t="n">
-        <v>8.04828785861832</v>
+        <v>7.099791192395617</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.464347865158651</v>
+        <v>-4.492977889371305</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.725542734761983</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.36098691566506</v>
+        <v>-31.25592949160536</v>
       </c>
       <c r="F30" t="n">
-        <v>7.66924804523327</v>
+        <v>6.769049877848821</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.711012928615111</v>
+        <v>-4.713320539856295</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.084678078396861</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.08276820188953</v>
+        <v>-30.97467226006204</v>
       </c>
       <c r="F31" t="n">
-        <v>7.714906480363389</v>
+        <v>6.834210561371064</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.651489270010422</v>
+        <v>-4.564738732163883</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.488145913251143</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.87914839939283</v>
+        <v>-30.73026347327466</v>
       </c>
       <c r="F32" t="n">
-        <v>7.58918566878067</v>
+        <v>6.64648736470213</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.826217486427095</v>
+        <v>-4.704236765097567</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.912954847599287</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.3746028907272</v>
+        <v>-30.14020434549983</v>
       </c>
       <c r="F33" t="n">
-        <v>7.635230335453276</v>
+        <v>6.714190331795169</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.700716680153389</v>
+        <v>-4.505963091609831</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.330557071964703</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.00027607996186</v>
+        <v>-29.73111669591072</v>
       </c>
       <c r="F34" t="n">
-        <v>7.624112733837912</v>
+        <v>6.711252038668153</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.768453870294495</v>
+        <v>-4.530696577349554</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.717446209574412</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.74694241113892</v>
+        <v>-29.37647791579845</v>
       </c>
       <c r="F35" t="n">
-        <v>7.711914408160837</v>
+        <v>6.824442325650968</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.698624185214348</v>
+        <v>-4.446742551430891</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.048302401247383</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.39876445360128</v>
+        <v>-29.02882797100242</v>
       </c>
       <c r="F36" t="n">
-        <v>7.797809369805665</v>
+        <v>6.943861207382232</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.866180228557258</v>
+        <v>-4.541794622937451</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.303138736758148</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.29040450540298</v>
+        <v>-28.84102410572019</v>
       </c>
       <c r="F37" t="n">
-        <v>7.94524714989122</v>
+        <v>7.04089821567676</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.921269557933655</v>
+        <v>-4.605146373918934</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.468583083141429</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.6528951214813</v>
+        <v>-28.17350355314596</v>
       </c>
       <c r="F38" t="n">
-        <v>7.713664672619192</v>
+        <v>6.87391418613728</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.911110201664206</v>
+        <v>-4.598697773861474</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.535915384281841</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.32485009422161</v>
+        <v>-27.82105749261349</v>
       </c>
       <c r="F39" t="n">
-        <v>7.60151574409903</v>
+        <v>6.819357758509376</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.01298732675698</v>
+        <v>-4.699973551109617</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.506231386643305</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.88317232485764</v>
+        <v>-27.36723543019211</v>
       </c>
       <c r="F40" t="n">
-        <v>7.64798086536219</v>
+        <v>6.840639605401057</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.857956919007107</v>
+        <v>-4.474927676018655</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.384901213968654</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.65746887834308</v>
+        <v>-27.13930259654623</v>
       </c>
       <c r="F41" t="n">
-        <v>7.425081264285804</v>
+        <v>6.644209087502148</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.366090958713045</v>
+        <v>-4.934024976849437</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.18466746160535</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.01747832343645</v>
+        <v>-26.43846346217398</v>
       </c>
       <c r="F42" t="n">
-        <v>7.327423352119178</v>
+        <v>6.586738811781563</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.096491564043887</v>
+        <v>-4.738058914602885</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.924054115467525</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.65416644514226</v>
+        <v>-26.09060573458611</v>
       </c>
       <c r="F43" t="n">
-        <v>7.327838917702866</v>
+        <v>6.543334208817092</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.197033990261993</v>
+        <v>-4.820648907605679</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.623186923187734</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.07151416277081</v>
+        <v>-25.46813249128363</v>
       </c>
       <c r="F44" t="n">
-        <v>7.427481766657459</v>
+        <v>6.656490272751839</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.311309636769263</v>
+        <v>-4.944942129183257</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.305998994941624</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.38416379834437</v>
+        <v>-24.75026005698704</v>
       </c>
       <c r="F45" t="n">
-        <v>7.487548105024376</v>
+        <v>6.71927489893676</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.368628353276974</v>
+        <v>-5.038512831609142</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.992166894428136</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.05994441895804</v>
+        <v>-24.44736652555419</v>
       </c>
       <c r="F46" t="n">
-        <v>7.322299672922651</v>
+        <v>6.607477978911017</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.262957358855474</v>
+        <v>-4.923215382666688</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.697714398346736</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.8433320807125</v>
+        <v>-24.15109270941915</v>
       </c>
       <c r="F47" t="n">
-        <v>7.433099235547544</v>
+        <v>6.701263797639045</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.173361419012391</v>
+        <v>-4.831517169870831</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.43488232399352</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.41569553907032</v>
+        <v>-23.73904721067556</v>
       </c>
       <c r="F48" t="n">
-        <v>7.408267969670483</v>
+        <v>6.663525553633329</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.125483374764693</v>
+        <v>-4.843989026388331</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.205772864928713</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.62187238309621</v>
+        <v>-22.96218890852964</v>
       </c>
       <c r="F49" t="n">
-        <v>7.679133617118172</v>
+        <v>6.920144635070828</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.254900275538798</v>
+        <v>-4.972741022228536</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.012902543464837</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.55645258221002</v>
+        <v>-22.93885367875385</v>
       </c>
       <c r="F50" t="n">
-        <v>7.41957135354679</v>
+        <v>6.6603232541355</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.277643935483686</v>
+        <v>-5.054235877693142</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.850770407126167</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.88903958778686</v>
+        <v>-22.24875080346134</v>
       </c>
       <c r="F51" t="n">
-        <v>7.511064228054237</v>
+        <v>6.729375587123807</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.093900390404422</v>
+        <v>-4.851796770354794</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.714074659250231</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.37499473877882</v>
+        <v>-21.75110368348493</v>
       </c>
       <c r="F52" t="n">
-        <v>7.347277609005719</v>
+        <v>6.612484321942737</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.287025939661296</v>
+        <v>-5.093905279411289</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.596513404408122</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.01760344780047</v>
+        <v>-21.39088654653751</v>
       </c>
       <c r="F53" t="n">
-        <v>7.730155292781297</v>
+        <v>6.938493077842359</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.235598476428218</v>
+        <v>-5.019592375034182</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.489871789449732</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.26009094582693</v>
+        <v>-20.71492267910411</v>
       </c>
       <c r="F54" t="n">
-        <v>7.673902379770573</v>
+        <v>6.930049762983198</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.245078260743166</v>
+        <v>-5.0882144754182</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.391885377703501</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.98598877583334</v>
+        <v>-20.35131746039792</v>
       </c>
       <c r="F55" t="n">
-        <v>7.486892978104209</v>
+        <v>6.75459797355022</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.419821144180441</v>
+        <v>-5.368613686256373</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.298761548346296</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.47576224118837</v>
+        <v>-19.819892191978</v>
       </c>
       <c r="F56" t="n">
-        <v>7.370070159019277</v>
+        <v>6.643133505991427</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.455041549649696</v>
+        <v>-5.42009003955812</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.212968472358933</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.20259876051323</v>
+        <v>-19.53888674428832</v>
       </c>
       <c r="F57" t="n">
-        <v>7.303579665629234</v>
+        <v>6.553356672894267</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.709025456385927</v>
+        <v>-5.729109496595214</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.136137528492025</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.72020045295473</v>
+        <v>-19.08695183851757</v>
       </c>
       <c r="F58" t="n">
-        <v>6.940311788396852</v>
+        <v>6.200536603336483</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.991008705448981</v>
+        <v>-5.971306007775313</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.0716030056966</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.18264925893057</v>
+        <v>-18.61466399715986</v>
       </c>
       <c r="F59" t="n">
-        <v>7.247810764298334</v>
+        <v>6.461946911503559</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.874811679243013</v>
+        <v>-5.852087575325593</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.022960183752732</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.74969347781718</v>
+        <v>-18.19756326531587</v>
       </c>
       <c r="F60" t="n">
-        <v>7.103746398950952</v>
+        <v>6.315741161148467</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.129846722455631</v>
+        <v>-6.108872882996566</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.989978694649719</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.45750687142288</v>
+        <v>-17.82954327340885</v>
       </c>
       <c r="F61" t="n">
-        <v>6.811442456391841</v>
+        <v>6.071393486946925</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.208774849315106</v>
+        <v>-6.179377251024347</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.973108686582181</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.09748529475013</v>
+        <v>-17.59439182112397</v>
       </c>
       <c r="F62" t="n">
-        <v>6.939769108634624</v>
+        <v>6.194537791910779</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.219388883223179</v>
+        <v>-6.190993531340137</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.967662282068367</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.52574527570562</v>
+        <v>-17.0376023850785</v>
       </c>
       <c r="F63" t="n">
-        <v>6.774843350986115</v>
+        <v>6.069638333481703</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.097721058333133</v>
+        <v>-6.102287390746832</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.969784237908454</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.54404971741535</v>
+        <v>-17.12273955065896</v>
       </c>
       <c r="F64" t="n">
-        <v>6.592121608342036</v>
+        <v>5.844064445649114</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.272405273688004</v>
+        <v>-6.243325460843594</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.974961298698577</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.29773666245331</v>
+        <v>-16.89098595814659</v>
       </c>
       <c r="F65" t="n">
-        <v>6.757624268800841</v>
+        <v>6.07266951773919</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.224957462044594</v>
+        <v>-6.196806560504898</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.978718430903878</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.24418737023999</v>
+        <v>-16.88305110000158</v>
       </c>
       <c r="F66" t="n">
-        <v>6.683433589595407</v>
+        <v>5.966685626878208</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.284872241198637</v>
+        <v>-6.297510323949613</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.978944260324415</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.10032834318102</v>
+        <v>-16.69052689858934</v>
       </c>
       <c r="F67" t="n">
-        <v>6.524687536626678</v>
+        <v>5.806169753423656</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.334901448467778</v>
+        <v>-6.379689640375586</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.97158336560577</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.76129038398107</v>
+        <v>-16.44057642251832</v>
       </c>
       <c r="F68" t="n">
-        <v>6.422101505538202</v>
+        <v>5.733612002511771</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.543701153739982</v>
+        <v>-6.486284657094933</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.955701777691705</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.54574873823939</v>
+        <v>-16.24920602672666</v>
       </c>
       <c r="F69" t="n">
-        <v>6.542537300697785</v>
+        <v>5.843653769072293</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.210564225828398</v>
+        <v>-6.178150110300751</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.930005012257779</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.35744863876016</v>
+        <v>-16.16914853928093</v>
       </c>
       <c r="F70" t="n">
-        <v>6.501381640892095</v>
+        <v>5.758140149963084</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.112818311538167</v>
+        <v>-6.157572280397906</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.895381978709044</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.44597877510625</v>
+        <v>-16.17437977662853</v>
       </c>
       <c r="F71" t="n">
-        <v>6.362934744434797</v>
+        <v>5.693654149388475</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.839640163842427</v>
+        <v>-5.891571194782798</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.853365590875584</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.40501378656838</v>
+        <v>-16.1553664289231</v>
       </c>
       <c r="F72" t="n">
-        <v>6.295383336554633</v>
+        <v>5.589806754528335</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.792725253947511</v>
+        <v>-5.875193021778633</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.803959062260831</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.36590173163306</v>
+        <v>-16.18077459761045</v>
       </c>
       <c r="F73" t="n">
-        <v>6.338895497670176</v>
+        <v>5.600772796930825</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.930306796189365</v>
+        <v>-5.97242070134097</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.749070014769724</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.47523459219788</v>
+        <v>-16.32180288969348</v>
       </c>
       <c r="F74" t="n">
-        <v>6.226189222367187</v>
+        <v>5.544549217961303</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.590124809382556</v>
+        <v>-5.644226559371837</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.687223622946396</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.77509693937323</v>
+        <v>-16.65741365507973</v>
       </c>
       <c r="F75" t="n">
-        <v>6.007538168258149</v>
+        <v>5.358977184313813</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.621170002987466</v>
+        <v>-5.659265144494467</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.617019992367933</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.83598951990066</v>
+        <v>-16.75689027780085</v>
       </c>
       <c r="F76" t="n">
-        <v>5.89820530769333</v>
+        <v>5.273551567328208</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.447781374452327</v>
+        <v>-5.466599161883082</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.536887474201275</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.98797896537931</v>
+        <v>-16.93409233169218</v>
       </c>
       <c r="F77" t="n">
-        <v>5.87693812782225</v>
+        <v>5.245415332809112</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.272608258410764</v>
+        <v>-5.228988539144149</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.443673774441832</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.42531529664545</v>
+        <v>-17.41500927017</v>
       </c>
       <c r="F78" t="n">
-        <v>5.807196444865708</v>
+        <v>5.101243409310658</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.869294525931482</v>
+        <v>-4.825767697795339</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.337114210003047</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.53793356982484</v>
+        <v>-17.56067722976973</v>
       </c>
       <c r="F79" t="n">
-        <v>5.889361094271081</v>
+        <v>5.216047068559554</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.664630920468689</v>
+        <v>-4.659609910416368</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.21430423020053</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.96321849916404</v>
+        <v>-17.94427848656161</v>
       </c>
       <c r="F80" t="n">
-        <v>5.56870580089073</v>
+        <v>4.911745503149034</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.202321542126344</v>
+        <v>-4.195330262306657</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.07505869827228</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.80147294954467</v>
+        <v>-18.77348827423845</v>
       </c>
       <c r="F81" t="n">
-        <v>5.665659696068521</v>
+        <v>5.015891127428056</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.075769599376251</v>
+        <v>-4.000674453900437</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.919967870326952</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.54185437145654</v>
+        <v>-19.48887709304665</v>
       </c>
       <c r="F82" t="n">
-        <v>5.42010443717085</v>
+        <v>4.76975896572009</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.982037559723758</v>
+        <v>-3.832380170520624</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.751220077212093</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.29704948417516</v>
+        <v>-20.20781044183336</v>
       </c>
       <c r="F83" t="n">
-        <v>5.100842510747571</v>
+        <v>4.520287612322021</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.890764690525323</v>
+        <v>-3.731603071972907</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.574757190446004</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.41904722609094</v>
+        <v>-21.39075943235897</v>
       </c>
       <c r="F84" t="n">
-        <v>4.985227276358766</v>
+        <v>4.376692591633862</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.545801255002671</v>
+        <v>-3.363455965887344</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.395729391034085</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.45568779711725</v>
+        <v>-22.35623561943047</v>
       </c>
       <c r="F85" t="n">
-        <v>5.093538334488399</v>
+        <v>4.508871781287775</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.606522720289755</v>
+        <v>-3.410336652734191</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.223757909204275</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.27824853545509</v>
+        <v>-23.20143734856899</v>
       </c>
       <c r="F86" t="n">
-        <v>4.731805605412229</v>
+        <v>4.192636150115115</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.53310939317616</v>
+        <v>-3.30054911453075</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.067186071521087</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.99316800960406</v>
+        <v>-24.01343294306742</v>
       </c>
       <c r="F87" t="n">
-        <v>4.482363586055362</v>
+        <v>3.939258480230381</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.53043021741309</v>
+        <v>-3.261221943293286</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.935499186463087</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.31722351632257</v>
+        <v>-25.30084045431154</v>
       </c>
       <c r="F88" t="n">
-        <v>4.546570913238556</v>
+        <v>4.053226119305036</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.493288432245137</v>
+        <v>-3.066761695161743</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.83692541018178</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.74458862714586</v>
+        <v>-26.69984688080329</v>
       </c>
       <c r="F89" t="n">
-        <v>4.021946253370514</v>
+        <v>3.582448981069194</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.497732539487163</v>
+        <v>-3.032724429354281</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.776770677394424</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.1101469131576</v>
+        <v>-28.02023807687504</v>
       </c>
       <c r="F90" t="n">
-        <v>4.200737234493593</v>
+        <v>3.724851084081826</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.497668982397893</v>
+        <v>-2.983746358561528</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.759635660456067</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.92985482505081</v>
+        <v>-29.80103927212134</v>
       </c>
       <c r="F91" t="n">
-        <v>3.717361125561712</v>
+        <v>3.213426742754454</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.847360087560852</v>
+        <v>-3.225023736450647</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.785193887445278</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.63338282226209</v>
+        <v>-31.48847265872674</v>
       </c>
       <c r="F92" t="n">
-        <v>3.404738470463703</v>
+        <v>2.884176575302067</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.914975052530286</v>
+        <v>-3.249307433558614</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.853427194569374</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.2934035473647</v>
+        <v>-33.13088318109471</v>
       </c>
       <c r="F93" t="n">
-        <v>3.113823005854796</v>
+        <v>2.613809606554803</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.321784424919412</v>
+        <v>-3.478445407397183</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.960087654619293</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.19961999126453</v>
+        <v>-34.955345652166</v>
       </c>
       <c r="F94" t="n">
-        <v>2.662479669914942</v>
+        <v>2.230526135209272</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.345530331272017</v>
+        <v>-3.503501567590122</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.102104954807279</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.41798974560316</v>
+        <v>-37.10341393226182</v>
       </c>
       <c r="F95" t="n">
-        <v>2.077852228769252</v>
+        <v>1.660643938774198</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.557566559090119</v>
+        <v>-3.652640722065363</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.280421038347789</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.34642917021656</v>
+        <v>-39.03917220015499</v>
       </c>
       <c r="F96" t="n">
-        <v>1.892700649712316</v>
+        <v>1.443928931384459</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.860870767099788</v>
+        <v>-3.889376212575119</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.488307680475896</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.46082930452337</v>
+        <v>-41.07700559791904</v>
       </c>
       <c r="F97" t="n">
-        <v>1.300402356792437</v>
+        <v>0.936704246955767</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.302680539649158</v>
+        <v>-4.276013542631354</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.739661246956178</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.40088012044569</v>
+        <v>-43.07178640121305</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9258262066768813</v>
+        <v>0.5912763557807583</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.579574332563753</v>
+        <v>-4.58837219135855</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.018484917925909</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.90247982059843</v>
+        <v>-45.53721967306778</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7577128165511439</v>
+        <v>0.4287462114970378</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.899618500085739</v>
+        <v>-4.814078082376545</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.357258479559623</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.48020135766904</v>
+        <v>-47.99818194814272</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1204945979459213</v>
+        <v>-0.3829022635138473</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.213326514708204</v>
+        <v>-5.062283182996083</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.710113331031494</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.39243372451861</v>
+        <v>-50.03746493644282</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2496083802942782</v>
+        <v>-0.5169441647840545</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.663555157082402</v>
+        <v>-5.526518830043992</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.150017916634769</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.70818271763245</v>
+        <v>-52.38412589772444</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6691731715991852</v>
+        <v>-0.923372194637561</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.970663012434531</v>
+        <v>-5.738295940498147</v>
       </c>
     </row>
   </sheetData>
